--- a/MyClient/map_2018_11_03_21_30_40.xlsx
+++ b/MyClient/map_2018_11_03_21_30_40.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Audrey/Documents/NEU/6650/Project2/MyClient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C5789B1-7FF9-6747-AEF3-63F2E8FED279}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{12D273EA-DF43-4849-B8E5-2B57831892E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="map_2018_11_03_21_30_40" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">map_2018_11_03_21_30_40!$A$2:$A$1414</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">map_2018_11_03_21_30_40!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">map_2018_11_03_21_30_40!$B$2:$B$1414</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">map_2018_11_03_21_30_40!$A$2:$A$1414</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">map_2018_11_03_21_30_40!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">map_2018_11_03_21_30_40!$B$2:$B$1414</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -597,11 +605,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -616,35 +624,36 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>map_2018_11_03_21_30_40!$A$1</c:f>
+              <c:f>map_2018_11_03_21_30_40!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timestamp</c:v>
+                  <c:v>reqNum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>map_2018_11_03_21_30_40!$A$2:$A$1414</c:f>
               <c:numCache>
@@ -4891,37 +4900,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB50-834A-A5D3-1BC6A25A3C39}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>map_2018_11_03_21_30_40!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reqNum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>map_2018_11_03_21_30_40!$B$2:$B$1414</c:f>
@@ -9170,9 +9149,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB50-834A-A5D3-1BC6A25A3C39}"/>
+              <c16:uniqueId val="{00000000-7562-8A45-A5D5-4E74D906809B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9184,24 +9164,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="665365456"/>
-        <c:axId val="664831600"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="666173632"/>
+        <c:axId val="666393232"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="665365456"/>
+        <c:axId val="666173632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -9209,6 +9204,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9232,7 +9228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664831600"/>
+        <c:crossAx val="666393232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9240,7 +9236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664831600"/>
+        <c:axId val="666393232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9253,6 +9249,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -9266,8 +9263,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -9291,7 +9295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665365456"/>
+        <c:crossAx val="666173632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9303,37 +9307,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9419,7 +9392,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9430,7 +9403,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9443,7 +9416,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9451,6 +9424,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9476,7 +9450,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9520,39 +9494,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -9560,7 +9544,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -9568,19 +9552,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9605,15 +9593,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -9623,13 +9609,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -9650,14 +9636,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -9669,14 +9654,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -9687,12 +9671,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9707,6 +9685,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9721,14 +9700,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -9740,14 +9719,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -9759,14 +9734,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -9803,11 +9777,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9818,14 +9801,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -9835,11 +9817,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9851,12 +9833,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -9876,7 +9853,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9885,8 +9862,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -9902,6 +9879,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9911,12 +9900,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9925,23 +9908,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3D7ACB-BE71-2D44-97F0-1D298E5248EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50F2149-34FC-F442-87BC-41896458EF4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10261,8 +10244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="B1:B1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
